--- a/yc-daily-post/12-1-2024_post.xlsx
+++ b/yc-daily-post/12-1-2024_post.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294" count="294">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295" count="295">
   <x:si>
     <x:t>companyName</x:t>
   </x:si>
@@ -34,6 +34,24 @@
     <x:t>applyLink</x:t>
   </x:si>
   <x:si>
+    <x:t>MixRank (S11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/98189b51f5b6f25d164e611f2ea6a3c5f972de3f.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data products for sales, marketing, finance, recruiting, and more.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software Engineer - BRAZIL / Remote</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeBR / Remote (BR)Full stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/mixrank/jobs/73TJGSg-software-engineer-brazil-remote</x:t>
+  </x:si>
+  <x:si>
     <x:t>Retell AI (W24)</x:t>
   </x:si>
   <x:si>
@@ -70,24 +88,6 @@
     <x:t>https://www.ycombinator.com/companies/rollstack-2/jobs/3S7DC9b-senior-cloud-infrastructure-engineer</x:t>
   </x:si>
   <x:si>
-    <x:t>MixRank (S11)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/98189b51f5b6f25d164e611f2ea6a3c5f972de3f.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data products for sales, marketing, finance, recruiting, and more.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Software Engineer - BRAZIL / Remote</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeBR / Remote (BR)Full stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/mixrank/jobs/73TJGSg-software-engineer-brazil-remote</x:t>
-  </x:si>
-  <x:si>
     <x:t>Peakflo (W22)</x:t>
   </x:si>
   <x:si>
@@ -133,13 +133,13 @@
     <x:t>Create enterprise-grade AI assistants from your content</x:t>
   </x:si>
   <x:si>
-    <x:t>Software Engineer (Full-stack)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeGB / EG / RU / UA / TR / FR / IT / ES / PL / RO / KZ / NL / BE / SE / CZ / GR / PT / HU / AT / CH / BG / DK / FI / NO / SK / LT / EE / Remote (GB; EG; RU; UA; TR; FR; IT; ES; PL; RO; KZ; NL; BE; SE; CZ; GR; PT; HU; AT; CH; BG; DK; FI; NO; SK; LT; EE)Full stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/kapa-ai/jobs/8QYADER-software-engineer-full-stack</x:t>
+    <x:t>Research Engineer, Applied AI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeGB / DE / FR / NO / DK / SE / FI / PT / ES / BE / NL / IT / CH / AT / CZ / PL / EE / LV / LT / SK / HU / SI / HR / RU / UA / Remote (GB; DE; FR; NO; DK; SE; FI; PT; ES; BE; NL; IT; CH; AT; CZ; PL; EE; LV; LT; SK; HU; SI; HR; RU; UA)Machine learning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/kapa-ai/jobs/hrFWJfn-research-engineer-applied-ai</x:t>
   </x:si>
   <x:si>
     <x:t>Pump.co (S22)</x:t>
@@ -220,13 +220,13 @@
     <x:t>Vertical AI for Audit &amp; Advisory Firms</x:t>
   </x:si>
   <x:si>
-    <x:t>Senior Machine Learning Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeSan Francisco, CA, US / Remote (US)Machine learning</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/fieldguide/jobs/queRlG6-senior-machine-learning-engineer</x:t>
+    <x:t>Senior Software Engineer, AI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeUS / Remote (US)Full stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/fieldguide/jobs/XqDhcVp-senior-software-engineer-ai</x:t>
   </x:si>
   <x:si>
     <x:t>Terra API (W21)</x:t>
@@ -274,13 +274,13 @@
     <x:t>Generative AI powered Shopify for home service professionals</x:t>
   </x:si>
   <x:si>
-    <x:t>Senior Frontend Software Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeBoston, MAFrontend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/topline-pro/jobs/BgVeqA9-senior-frontend-software-engineer</x:t>
+    <x:t>QA Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeBoston, MAFull stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/topline-pro/jobs/Fu9kkHC-qa-engineer</x:t>
   </x:si>
   <x:si>
     <x:t>Luminai (S20)</x:t>
@@ -307,13 +307,13 @@
     <x:t>Application Development Platform (Native Mobile + Web Apps)</x:t>
   </x:si>
   <x:si>
-    <x:t>Software Engineer - AI (United States)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeMountain View, CA, US / New York, NY, US / Remote (US)Full stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/flutterflow/jobs/UnyHKVJ-software-engineer-ai-united-states</x:t>
+    <x:t>Software Engineer - Flutter (United States)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeRemoteFull stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/flutterflow/jobs/qxAuDS1-software-engineer-flutter-united-states</x:t>
   </x:si>
   <x:si>
     <x:t>Converge (S23)</x:t>
@@ -334,6 +334,24 @@
     <x:t>https://www.ycombinator.com/companies/converge/jobs/GQWZ40Z-senior-product-engineer</x:t>
   </x:si>
   <x:si>
+    <x:t>Fathom (W21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/008e65b3fdfccde7a316a6c0911fd59301ff1025.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Never take notes again with the #1 AI Meeting Assistant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Site Reliability Engineer (Remote)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeUS / CA / Remote (US; CA)Backend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/fathom/jobs/TArBVR8-senior-site-reliability-engineer-remote</x:t>
+  </x:si>
+  <x:si>
     <x:t>Forage (S21)</x:t>
   </x:si>
   <x:si>
@@ -352,24 +370,6 @@
     <x:t>https://www.ycombinator.com/companies/forage-2/jobs/ZhQqyQU-data-analyst</x:t>
   </x:si>
   <x:si>
-    <x:t>Fathom (W21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/008e65b3fdfccde7a316a6c0911fd59301ff1025.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Never take notes again with the #1 AI Meeting Assistant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Site Reliability Engineer (Remote)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeUS / CA / Remote (US; CA)Backend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/fathom/jobs/TArBVR8-senior-site-reliability-engineer-remote</x:t>
-  </x:si>
-  <x:si>
     <x:t>Coast (S21)</x:t>
   </x:si>
   <x:si>
@@ -412,7 +412,31 @@
     <x:t>LLM Observability for Developers</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ycombinator.com/companies/helicone/jobs/3sOKzNG-software-engineer</x:t>
+    <x:t>Senior Software Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeSan Francisco, CA, US / Remote (US)Backend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/helicone/jobs/s1UCrdJ-senior-software-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Novig (S22)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/37d72609fbfc24b4a158ddb750a5b26591ee74b6.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The first prediction market for sports</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Frontend Mobile Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeNew York, NYFull stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/novig/jobs/ibLgITR-frontend-mobile-engineer</x:t>
   </x:si>
   <x:si>
     <x:t>SafeBase (S20)</x:t>
@@ -424,13 +448,13 @@
     <x:t>Trust Center platform that scales customer security reviews</x:t>
   </x:si>
   <x:si>
-    <x:t>Senior Software Engineer - Full Stack</x:t>
+    <x:t>Software Engineering Manager</x:t>
   </x:si>
   <x:si>
     <x:t>Full-timeUS / CA / Remote (US; CA)Full stack</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ycombinator.com/companies/safebase/jobs/fE3Fdca-senior-software-engineer-full-stack</x:t>
+    <x:t>https://www.ycombinator.com/companies/safebase/jobs/tpH5ZxK-software-engineering-manager</x:t>
   </x:si>
   <x:si>
     <x:t>Prelim (S17)</x:t>
@@ -445,28 +469,43 @@
     <x:t>Software Engineer In Test</x:t>
   </x:si>
   <x:si>
-    <x:t>Full-timeUS / Remote (US)Full stack</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://www.ycombinator.com/companies/prelim/jobs/8rmQ2bD-software-engineer-in-test</x:t>
   </x:si>
   <x:si>
-    <x:t>Novig (S22)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/37d72609fbfc24b4a158ddb750a5b26591ee74b6.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The first prediction market for sports</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Frontend Mobile Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeNew York, NYFull stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/novig/jobs/ibLgITR-frontend-mobile-engineer</x:t>
+    <x:t>Skio (S20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/c87a6ed342316be397663cebac7a3099c11d1320.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subscriptions for Shopify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Launch Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeNew York / RemoteFrontend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/skio/jobs/npuZnye-launch-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BusinessOnBot (W21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/03c75b785d321bb19fc8ab6c4a6b736e7b35df44.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Automated user acquisition &amp; selling on WhatsApp for businesses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Frontend Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeBangalore, Karnataka, IndiaFrontend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/businessonbot/jobs/3JjjpvT-frontend-engineer</x:t>
   </x:si>
   <x:si>
     <x:t>Blissway (S20)</x:t>
@@ -478,31 +517,103 @@
     <x:t>The tolling industry’s prime tech infrastructure</x:t>
   </x:si>
   <x:si>
-    <x:t>Electrical Engineer</x:t>
+    <x:t>Machine-Learning Engineer</x:t>
   </x:si>
   <x:si>
     <x:t>Full-timeDenver, ColoradoFull stack</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ycombinator.com/companies/blissway/jobs/cep8MsY-electrical-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BusinessOnBot (W21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/03c75b785d321bb19fc8ab6c4a6b736e7b35df44.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Automated user acquisition &amp; selling on WhatsApp for businesses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lead Software Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeBangalore, IndiaBackend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/businessonbot/jobs/ZEJQDyH-lead-software-engineer</x:t>
+    <x:t>https://www.ycombinator.com/companies/blissway/jobs/wdRCkTe-machine-learning-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Dots (S22)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/e8b36a45fa3e2b7353a65799934a6decddebd57a.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI underwriting automation and fraud prevention</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Machine Learning Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeLos Angeles, CA, USMachine learning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/two-dots/jobs/97PTcHT-machine-learning-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flock Safety (S17)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/ee69b5c905088288ff0fc007921dde14514a40a1.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The first public safety operating system that eliminates crime.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Linux/Android Kernel Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeRemote, US / Remote (Atlanta, GA, US)Embedded systems</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/flock-safety/jobs/idhZrSI-linux-android-kernel-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rinsed (W21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/e04c655a1fa7eded2a929a6692b1417c648b4a2f.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software to run car washes moving to a monthly subscription model</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data &amp; Analytics Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeNew YorkData science</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/rinsed/jobs/QRXTiwt-data-analytics-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Candid Health (W20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/7f1fc72499603c65b614fa89ee6cd64919abda54.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The revenue cycle automation platform.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Frontend Software Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeNew York, NY, US / Denver, CO, USFrontend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/candid-health/jobs/Q5G26yJ-frontend-software-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whatnot (W20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/8cc4364cbc36079057551f98544d5fb6be675455.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whatnot is the largest livestream shopping platform in the U.S.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fullstack Engineer, Community</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeRemote (San Francisco, CA, US; Seattle, WA, US; New York, NY, US; Los Angeles, CA, US)Full stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/whatnot/jobs/BKmptzP-fullstack-engineer-community</x:t>
   </x:si>
   <x:si>
     <x:t>Coulomb AI (S21)</x:t>
@@ -514,322 +625,247 @@
     <x:t>Battery Observability Platform for Electric Vehicles</x:t>
   </x:si>
   <x:si>
+    <x:t>Battery Modelling Intern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InternshipRemoteElectrical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/coulomb-ai/jobs/Y65PGEG-battery-modelling-intern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spellbrush (W18)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/fb441dcc9519c0cc22e2464b6b1c3b1ca462403b.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Making Anime Real</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI Researcher (Anime)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeChiyoda City, Tokyo, JP / San Francisco, CA, US / RemoteMachine learning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/spellbrush/jobs/qF8y6Bm-ai-researcher-anime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Truss (S21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/d3f982deac62cf40f505362f3a6405c4b5190460.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Banking for construction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeCanada / US / Remote (CA; US)Full stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/truss/jobs/C77AdOP-senior-software-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Credal.ai (W23)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/67584a441ac14e21e59b84f0e3760e5308aaf4dc.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Build Intelligent Internal Assistants</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Founding Software Engineer, Full-Stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/credal-ai/jobs/Z6XipH7-founding-software-engineer-full-stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Axle Health (W21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/48b548fd88ed1c898f2a5e58f8a6edb67f37bd16.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scheduling and workforce management SaaS for home healthcare providers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software Engineer (New Grad)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeLos Angeles, CA, USFull stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/axle-health/jobs/ommmQqU-software-engineer-new-grad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Replicate (W20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/256be79b4f9ac851425e3bf2a60af5ae33ca72ba.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Run machine learning models in the cloud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Infrastructure Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/replicate/jobs/v0puXvK-infrastructure-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reworkd (S23)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/b0530c04819d4d4e9f06ad3bb6fed6b85f152baf.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The simplest way to extract web data at scale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Backend Software Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeSan Francisco, CA, USBackend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/reworkd/jobs/kqP7tsy-senior-backend-software-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silurian (S24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/264e2c359db5aaec1e0417e61bfa018c5458c3dc.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Foundation models to simulate Earth, starting with weather.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Founding Research Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeSeattle, WA, US / RemoteFull stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/silurian/jobs/vwXNzXx-founding-research-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamarind Bio (W24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/9f825e68bedd9d6fae6a9628ae002227d27ab4d2.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy to use computational biology tools for drug discovery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computational Biologist - Protein Engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeSan Francisco, CA, USBioengineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/tamarind-bio/jobs/Sfd2dcu-computational-biologist-protein-engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PlayHT (W23)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/b51a234c04b9c04472dc8991c3d411ee0f347db7.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Our mission is to make Voice AI accessible and useful to all.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Machine Learning Engineer/Researcher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timePalo Alto, CA, USFull stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/playht/jobs/UD4hh8X-machine-learning-engineer-researcher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seal (S20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/c7c574f267298b266e49f83004d0138436eb334f.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>All-in-one workspace for companies making regulated products</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product Engineer (Full-time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeEngland, GBBackend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/seal-2/jobs/n4byaPm-product-engineer-full-time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meticulate (W24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/c3761b435e24919662b3cb0d2c5381a1f5398ba3.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The most powerful way to find, research, and track companies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/meticulate/jobs/iKgxKkW-founding-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corgi (S24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/8f66899a62764756d799d5abc511dc4b46f8c151.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corgi is building an AI insurance company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/corgi/jobs/YsjMygb-senior-engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TRM Labs (S19)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/19aa5130e3a0a349d200e7510f0c2fe8439a646f.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TRM is building a safer financial system for billions of people.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior or Staff Software Engineer, Product (Full Stack)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-timeUS / Remote (US)Backend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/trm-labs/jobs/13nI4DX-senior-or-staff-software-engineer-product-full-stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pulley (W20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/fdd0d51a51c1c725d1102b217d8d58c41b1ed138.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pulley helps startups manage their equity and cap table</x:t>
+  </x:si>
+  <x:si>
     <x:t>Senior Backend Engineer</x:t>
   </x:si>
   <x:si>
-    <x:t>Full-timeBangaloreBackend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/coulomb-ai/jobs/uIDNDlU-senior-backend-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rinsed (W21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/e04c655a1fa7eded2a929a6692b1417c648b4a2f.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Software to run car washes moving to a monthly subscription model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data &amp; Analytics Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeNew YorkData science</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/rinsed/jobs/QRXTiwt-data-analytics-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Skio (S20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/c87a6ed342316be397663cebac7a3099c11d1320.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Subscriptions for Shopify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UX Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeNew York, NY, US / RemoteFrontend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/skio/jobs/MlMNScw-ux-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flock Safety (S17)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/ee69b5c905088288ff0fc007921dde14514a40a1.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The first public safety operating system that eliminates crime.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Software Engineer, Search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeUS / Remote (US)Backend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/flock-safety/jobs/B6XAK6H-senior-software-engineer-search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two Dots (S22)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/e8b36a45fa3e2b7353a65799934a6decddebd57a.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AI underwriting automation and fraud prevention</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeLos Angeles, CA, USBackend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/two-dots/jobs/bRJOKf6-software-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Candid Health (W20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/7f1fc72499603c65b614fa89ee6cd64919abda54.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The revenue cycle automation platform.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Frontend Software Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeNew York, NY, US / Denver, CO, USFrontend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/candid-health/jobs/Q5G26yJ-frontend-software-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Credal.ai (W23)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/67584a441ac14e21e59b84f0e3760e5308aaf4dc.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Build Intelligent Internal Assistants</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Founding AI Engineer,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/credal-ai/jobs/kC2jY9a-founding-ai-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spellbrush (W18)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/fb441dcc9519c0cc22e2464b6b1c3b1ca462403b.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Making Anime Real</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LLM Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeSan FranciscoFull stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/spellbrush/jobs/H2x1gmR-llm-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Truss (S21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/d3f982deac62cf40f505362f3a6405c4b5190460.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Banking for construction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Software Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeCanada / US / Remote (CA; US)Full stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/truss/jobs/C77AdOP-senior-software-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Whatnot (W20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/8cc4364cbc36079057551f98544d5fb6be675455.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Whatnot is the largest livestream shopping platform in the U.S.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Backend Engineer, Community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeRemote (San Francisco, CA, US; Los Angeles, CA, US; Seattle, WA, US; New York, NY, US)Backend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/whatnot/jobs/mthHlVS-backend-engineer-community</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Axle Health (W21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/48b548fd88ed1c898f2a5e58f8a6edb67f37bd16.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scheduling and workforce management SaaS for home healthcare providers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Software Engineer (New Grad)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeLos Angeles, CA, USFull stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/axle-health/jobs/ommmQqU-software-engineer-new-grad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Replicate (W20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/256be79b4f9ac851425e3bf2a60af5ae33ca72ba.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Run machine learning models in the cloud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Infrastructure Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeSan Francisco, CA, US / Remote (US)Backend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/replicate/jobs/v0puXvK-infrastructure-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reworkd (S23)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/b0530c04819d4d4e9f06ad3bb6fed6b85f152baf.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The simplest way to extract web data at scale</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Backend Software Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeSan Francisco, CA, USBackend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/reworkd/jobs/kqP7tsy-senior-backend-software-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Silurian (S24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/264e2c359db5aaec1e0417e61bfa018c5458c3dc.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Foundation models to simulate Earth, starting with weather.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Founding Research Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeSeattle, WA, US / RemoteFull stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/silurian/jobs/vwXNzXx-founding-research-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tamarind Bio (W24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/9f825e68bedd9d6fae6a9628ae002227d27ab4d2.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy to use computational biology tools for drug discovery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Computational Biologist - Protein Engineering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeSan Francisco, CA, USBioengineering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/tamarind-bio/jobs/Sfd2dcu-computational-biologist-protein-engineering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PlayHT (W23)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/b51a234c04b9c04472dc8991c3d411ee0f347db7.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Our mission is to make Voice AI accessible and useful to all.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Junior Machine Learning Engineer/Researcher</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timePalo Alto, CAFull stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/playht/jobs/kaUiZJj-junior-machine-learning-engineer-researcher</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seal (S20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/c7c574f267298b266e49f83004d0138436eb334f.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>All-in-one workspace for companies making regulated products</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Product Engineer (Full-time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeEngland, GBBackend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/seal-2/jobs/n4byaPm-product-engineer-full-time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corgi (S24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/8f66899a62764756d799d5abc511dc4b46f8c151.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corgi is building an AI insurance company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/corgi/jobs/YsjMygb-senior-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meticulate (W24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/c3761b435e24919662b3cb0d2c5381a1f5398ba3.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The most powerful way to find, research, and track companies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/meticulate/jobs/iKgxKkW-founding-engineer</x:t>
+    <x:t>Full-timeRemote / Remote (US)Full stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/pulley/jobs/KfXsgXK-senior-backend-engineer</x:t>
   </x:si>
   <x:si>
     <x:t>Activeloop (S18)</x:t>
@@ -850,52 +886,19 @@
     <x:t>https://www.ycombinator.com/companies/activeloop/jobs/RQYMSP1-ai-search-engineer</x:t>
   </x:si>
   <x:si>
-    <x:t>TRM Labs (S19)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/19aa5130e3a0a349d200e7510f0c2fe8439a646f.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TRM is building a safer financial system for billions of people.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Data Scientist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeBR / US / AR / Remote (BR; US; AR)Data science</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/trm-labs/jobs/4EPqP0L-senior-data-scientist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pulley (W20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/fdd0d51a51c1c725d1102b217d8d58c41b1ed138.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pulley helps startups manage their equity and cap table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-timeRemote / Remote (US)Full stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/pulley/jobs/KfXsgXK-senior-backend-engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dripos (S20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/ba1d88383fb670f4bece6ddacd19dd9b25e972cc.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The only piece of software a coffee shop needs to operate.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Software Engineer - Fintech</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ycombinator.com/companies/dripos/jobs/mxkpl2M-software-engineer-fintech</x:t>
+    <x:t>Trieve (W24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bookface-images.s3.amazonaws.com/small_logos/e020de4d43f09ae8fc176bd79fd704be218893b7.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>All-in-one API for search, RAG, &amp; recommendations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software Engineer - OpenAPI Tooling</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ycombinator.com/companies/trieve/jobs/arKjyiM-software-engineer-openapi-tooling</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1709,350 +1712,350 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
       <x:c r="A38" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
       <x:c r="A39" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
       <x:c r="A40" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
         <x:v>232</x:v>
@@ -2169,27 +2172,27 @@
         <x:v>265</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6">
       <x:c r="A47" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
         <x:v>268</x:v>
       </x:c>
-      <x:c r="B47" s="0" t="s">
+      <x:c r="C47" s="0" t="s">
         <x:v>269</x:v>
       </x:c>
-      <x:c r="C47" s="0" t="s">
+      <x:c r="D47" s="0" t="s">
         <x:v>270</x:v>
-      </x:c>
-      <x:c r="D47" s="0" t="s">
-        <x:v>51</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>46</x:v>
@@ -2249,33 +2252,33 @@
         <x:v>286</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6">
       <x:c r="A51" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
